--- a/app/Vendor/db/schema/users.xlsx
+++ b/app/Vendor/db/schema/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
   <si>
     <t>ColumnID</t>
   </si>
@@ -118,42 +118,24 @@
     <t>上司</t>
   </si>
   <si>
-    <t>companyEmail</t>
-  </si>
-  <si>
     <t>会社メールアドレス</t>
   </si>
   <si>
-    <t>mobileEmail</t>
-  </si>
-  <si>
     <t>携帯メールアドレス</t>
   </si>
   <si>
-    <t>agentCD</t>
-  </si>
-  <si>
     <t>代理者CD</t>
   </si>
   <si>
-    <t>agentStrDay</t>
-  </si>
-  <si>
     <t>代理開始日</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>agentEndDay</t>
-  </si>
-  <si>
     <t>代理終了日</t>
   </si>
   <si>
-    <t>companyTel</t>
-  </si>
-  <si>
     <t>会社電話番号</t>
   </si>
   <si>
@@ -181,9 +163,6 @@
     <t>1: active</t>
   </si>
   <si>
-    <t>deleteReason</t>
-  </si>
-  <si>
     <t>削除理由</t>
   </si>
   <si>
@@ -215,6 +194,30 @@
   </si>
   <si>
     <t>更新日時</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>companyemail</t>
+  </si>
+  <si>
+    <t>mobileemail</t>
+  </si>
+  <si>
+    <t>agentcd</t>
+  </si>
+  <si>
+    <t>agentstrday</t>
+  </si>
+  <si>
+    <t>agentendday</t>
+  </si>
+  <si>
+    <t>companytel</t>
+  </si>
+  <si>
+    <t>deletereason</t>
   </si>
 </sst>
 </file>
@@ -703,48 +706,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,7 +760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1045,7 +1048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1262,7 +1267,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -1308,10 +1313,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1331,10 +1336,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1354,10 +1359,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1377,13 +1382,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1400,13 +1405,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1423,13 +1428,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1446,13 +1451,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1469,13 +1474,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1492,10 +1497,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1510,18 +1515,18 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1538,10 +1543,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -1561,13 +1566,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1584,10 +1589,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -1607,13 +1612,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
